--- a/data/pca/factorExposure/factorExposure_2018-08-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-08-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.03793348554921876</v>
+        <v>-0.03289450074589761</v>
       </c>
       <c r="C2">
-        <v>0.04549107698523365</v>
+        <v>0.01370456361923298</v>
       </c>
       <c r="D2">
-        <v>0.03971247166703785</v>
+        <v>-0.01114976265144151</v>
       </c>
       <c r="E2">
-        <v>0.04946689772977378</v>
+        <v>0.01597252017474828</v>
       </c>
       <c r="F2">
-        <v>-0.1443799748026979</v>
+        <v>0.02058452667666493</v>
       </c>
       <c r="G2">
-        <v>0.04737890357754954</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.08435771433775263</v>
+      </c>
+      <c r="H2">
+        <v>0.02013754502094225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.1201851393651013</v>
+        <v>-0.08288567135926517</v>
       </c>
       <c r="C3">
-        <v>0.006170545104643712</v>
+        <v>-0.01531724964993</v>
       </c>
       <c r="D3">
-        <v>0.04085831732330931</v>
+        <v>-0.01594348147852379</v>
       </c>
       <c r="E3">
-        <v>0.09387604920188811</v>
+        <v>0.008504654603981095</v>
       </c>
       <c r="F3">
-        <v>-0.3938609298188481</v>
+        <v>-0.01541423408098644</v>
       </c>
       <c r="G3">
-        <v>0.1440982261507497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.2732453075217038</v>
+      </c>
+      <c r="H3">
+        <v>0.03903579342415432</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05210556211342999</v>
+        <v>-0.0501402162865</v>
       </c>
       <c r="C4">
-        <v>0.03703072024075377</v>
+        <v>0.002378122108637491</v>
       </c>
       <c r="D4">
-        <v>-0.002413719255752624</v>
+        <v>-0.03035600184969894</v>
       </c>
       <c r="E4">
-        <v>0.06691668702427793</v>
+        <v>-0.02103088406158353</v>
       </c>
       <c r="F4">
-        <v>-0.0714467219414968</v>
+        <v>0.05596999528274203</v>
       </c>
       <c r="G4">
-        <v>0.04618402579056408</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.05322552407141719</v>
+      </c>
+      <c r="H4">
+        <v>0.02620044992981414</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.01268178673524608</v>
+        <v>-0.03096586098581985</v>
       </c>
       <c r="C6">
-        <v>-0.002070210299088679</v>
+        <v>0.002432434762553531</v>
       </c>
       <c r="D6">
-        <v>0.01538448810660382</v>
+        <v>-0.03938007720148207</v>
       </c>
       <c r="E6">
-        <v>0.02233529676649953</v>
+        <v>-0.005489093811520206</v>
       </c>
       <c r="F6">
-        <v>-0.01222737033796546</v>
+        <v>0.03511406543941376</v>
       </c>
       <c r="G6">
-        <v>-0.00355180449456503</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01641200656752477</v>
+      </c>
+      <c r="H6">
+        <v>0.05239698147316316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02673485145530449</v>
+        <v>-0.0213015871141188</v>
       </c>
       <c r="C7">
-        <v>0.01631066967882637</v>
+        <v>0.002314596614933982</v>
       </c>
       <c r="D7">
-        <v>0.03080038763110506</v>
+        <v>-0.01744789394501012</v>
       </c>
       <c r="E7">
-        <v>0.03945142200365078</v>
+        <v>-0.03535304208288782</v>
       </c>
       <c r="F7">
-        <v>-0.06412006951999803</v>
+        <v>0.02048511710864659</v>
       </c>
       <c r="G7">
-        <v>0.05681158160806963</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.04042893433111422</v>
+      </c>
+      <c r="H7">
+        <v>0.01590671755943142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01568955132180452</v>
+        <v>-0.006329228912016162</v>
       </c>
       <c r="C8">
-        <v>0.01561901431674194</v>
+        <v>-0.002746424131427467</v>
       </c>
       <c r="D8">
-        <v>-0.0001905021636107551</v>
+        <v>-0.00794992064910496</v>
       </c>
       <c r="E8">
-        <v>0.07140492307225724</v>
+        <v>-0.01097195802247347</v>
       </c>
       <c r="F8">
-        <v>-0.08753317519817805</v>
+        <v>0.02738557425803235</v>
       </c>
       <c r="G8">
-        <v>0.06664957080658171</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.05782279454615637</v>
+      </c>
+      <c r="H8">
+        <v>0.007171841627141858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04262551550570507</v>
+        <v>-0.0410670940508101</v>
       </c>
       <c r="C9">
-        <v>0.02908958440153318</v>
+        <v>-0.001611391200608157</v>
       </c>
       <c r="D9">
-        <v>-0.0119813222557009</v>
+        <v>-0.02544284157973619</v>
       </c>
       <c r="E9">
-        <v>0.0698349436176382</v>
+        <v>-0.01815402789616019</v>
       </c>
       <c r="F9">
-        <v>-0.06678767250041275</v>
+        <v>0.03443388692385879</v>
       </c>
       <c r="G9">
-        <v>0.04976753259428682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.0630182886329872</v>
+      </c>
+      <c r="H9">
+        <v>0.02499250367421188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04989568815073408</v>
+        <v>-0.09575285512987955</v>
       </c>
       <c r="C10">
-        <v>0.04220725344308376</v>
+        <v>-0.03300816952983499</v>
       </c>
       <c r="D10">
-        <v>-0.01897280542679092</v>
+        <v>0.1469788858304527</v>
       </c>
       <c r="E10">
-        <v>-0.1120363519898595</v>
+        <v>0.01987393513476177</v>
       </c>
       <c r="F10">
-        <v>-0.07967735725539257</v>
+        <v>-0.06964508493397117</v>
       </c>
       <c r="G10">
-        <v>-0.04630787420598286</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.0236193271075121</v>
+      </c>
+      <c r="H10">
+        <v>0.003763983614476266</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03417305206425163</v>
+        <v>-0.02348470598408043</v>
       </c>
       <c r="C11">
-        <v>0.01180943573411282</v>
+        <v>-0.008891640524057122</v>
       </c>
       <c r="D11">
-        <v>0.01800110099225092</v>
+        <v>-0.03298492649745993</v>
       </c>
       <c r="E11">
-        <v>0.03784295191172778</v>
+        <v>0.003621125771172841</v>
       </c>
       <c r="F11">
-        <v>-0.03423832395034808</v>
+        <v>0.02070120640414054</v>
       </c>
       <c r="G11">
-        <v>0.02272117136929428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.03691287290833591</v>
+      </c>
+      <c r="H11">
+        <v>0.02742611102212073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04146867667481858</v>
+        <v>-0.03239895740661902</v>
       </c>
       <c r="C12">
-        <v>0.0125713743352955</v>
+        <v>-0.007472469500963765</v>
       </c>
       <c r="D12">
-        <v>0.003350232195078828</v>
+        <v>-0.03238181588968549</v>
       </c>
       <c r="E12">
-        <v>0.04524745790110263</v>
+        <v>-0.007829474495292218</v>
       </c>
       <c r="F12">
-        <v>-0.01620418817578867</v>
+        <v>0.02412667170092271</v>
       </c>
       <c r="G12">
-        <v>0.01789660823047682</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.01428680194471097</v>
+      </c>
+      <c r="H12">
+        <v>0.0140875019606157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01980203424647628</v>
+        <v>-0.0274841801933086</v>
       </c>
       <c r="C13">
-        <v>0.02396423115436741</v>
+        <v>0.01245279366481194</v>
       </c>
       <c r="D13">
-        <v>0.03518703262607913</v>
+        <v>-0.001764471117441338</v>
       </c>
       <c r="E13">
-        <v>0.02132465922727293</v>
+        <v>0.01790741716919201</v>
       </c>
       <c r="F13">
-        <v>-0.0898832803727405</v>
+        <v>0.01894558184798268</v>
       </c>
       <c r="G13">
-        <v>0.03129988853847837</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.07126404813509793</v>
+      </c>
+      <c r="H13">
+        <v>0.02578855926241522</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01049575691320655</v>
+        <v>-0.01609071611957802</v>
       </c>
       <c r="C14">
-        <v>0.01783669202521095</v>
+        <v>2.898242782157388e-05</v>
       </c>
       <c r="D14">
-        <v>0.006202867268716975</v>
+        <v>-0.002616697949458744</v>
       </c>
       <c r="E14">
-        <v>0.0415414036328355</v>
+        <v>-0.008090205358584244</v>
       </c>
       <c r="F14">
-        <v>-0.06401757913024606</v>
+        <v>0.0233297664228248</v>
       </c>
       <c r="G14">
-        <v>0.06495568126392307</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.04726651861241209</v>
+      </c>
+      <c r="H14">
+        <v>-0.01792649268752351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02547710542188449</v>
+        <v>-0.02494509429659035</v>
       </c>
       <c r="C16">
-        <v>0.01309936528832443</v>
+        <v>-0.009520295821506937</v>
       </c>
       <c r="D16">
-        <v>0.0137112974307873</v>
+        <v>-0.02796875343788172</v>
       </c>
       <c r="E16">
-        <v>0.03581854018224651</v>
+        <v>-0.001083718214193323</v>
       </c>
       <c r="F16">
-        <v>-0.03855385285634302</v>
+        <v>0.02252165361704697</v>
       </c>
       <c r="G16">
-        <v>0.0242235463126019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.03285941685380989</v>
+      </c>
+      <c r="H16">
+        <v>0.02150090482958432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03866737683794298</v>
+        <v>-0.03559553020683894</v>
       </c>
       <c r="C19">
-        <v>0.01349927390527028</v>
+        <v>-0.001444701387769833</v>
       </c>
       <c r="D19">
-        <v>0.0183081423520312</v>
+        <v>-0.01056755923470691</v>
       </c>
       <c r="E19">
-        <v>0.0553545035577345</v>
+        <v>0.00147850825140189</v>
       </c>
       <c r="F19">
-        <v>-0.1023294157984659</v>
+        <v>0.02919064487608072</v>
       </c>
       <c r="G19">
-        <v>0.04214796562236425</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.07548877551990806</v>
+      </c>
+      <c r="H19">
+        <v>0.03686663298949212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0007091768217379608</v>
+        <v>-0.01067171170319359</v>
       </c>
       <c r="C20">
-        <v>0.02232069738416479</v>
+        <v>0.005883825993966457</v>
       </c>
       <c r="D20">
-        <v>0.009762505165409427</v>
+        <v>-0.001148758031791859</v>
       </c>
       <c r="E20">
-        <v>0.03417355300024386</v>
+        <v>-0.0001557867944720702</v>
       </c>
       <c r="F20">
-        <v>-0.06345001459141525</v>
+        <v>0.01605044743574554</v>
       </c>
       <c r="G20">
-        <v>0.06594666931006528</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05301623642378168</v>
+      </c>
+      <c r="H20">
+        <v>-0.01013488097526887</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-4.792922575502547e-05</v>
+        <v>-0.02340269432231034</v>
       </c>
       <c r="C21">
-        <v>-0.003032937600225353</v>
+        <v>0.004949198316020677</v>
       </c>
       <c r="D21">
-        <v>0.005582291205684864</v>
+        <v>-0.002574899881284884</v>
       </c>
       <c r="E21">
-        <v>0.04116716689108395</v>
+        <v>-0.01119187485159397</v>
       </c>
       <c r="F21">
-        <v>-0.06474482256574965</v>
+        <v>0.00896539008549381</v>
       </c>
       <c r="G21">
-        <v>0.02642583826308739</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.05756087327937338</v>
+      </c>
+      <c r="H21">
+        <v>0.009889874289511392</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03216703116019409</v>
+        <v>-0.02297396244399848</v>
       </c>
       <c r="C24">
-        <v>0.01639329756433448</v>
+        <v>-0.003998657616257778</v>
       </c>
       <c r="D24">
-        <v>0.012710157567653</v>
+        <v>-0.02899022686087988</v>
       </c>
       <c r="E24">
-        <v>0.02436596563377968</v>
+        <v>-0.001318240127838637</v>
       </c>
       <c r="F24">
-        <v>-0.03240460613292506</v>
+        <v>0.01838560863363523</v>
       </c>
       <c r="G24">
-        <v>0.01966291706762052</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.03087344715454304</v>
+      </c>
+      <c r="H24">
+        <v>0.02613294641652312</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03140173707134104</v>
+        <v>-0.03399672254505583</v>
       </c>
       <c r="C25">
-        <v>0.009358346112922005</v>
+        <v>-0.00265588653256651</v>
       </c>
       <c r="D25">
-        <v>0.009163505992033225</v>
+        <v>-0.02543384465554972</v>
       </c>
       <c r="E25">
-        <v>0.04087044494598484</v>
+        <v>-0.001885867768331544</v>
       </c>
       <c r="F25">
-        <v>-0.032246591729494</v>
+        <v>0.02294807246588917</v>
       </c>
       <c r="G25">
-        <v>0.006629282070369995</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.03492237510244649</v>
+      </c>
+      <c r="H25">
+        <v>0.02888596461724229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.0185420837006015</v>
+        <v>-0.01942614447077759</v>
       </c>
       <c r="C26">
-        <v>-0.003975226062307194</v>
+        <v>0.01715947386362874</v>
       </c>
       <c r="D26">
-        <v>0.03662867009177048</v>
+        <v>-0.00400514844884559</v>
       </c>
       <c r="E26">
-        <v>0.04166751660191043</v>
+        <v>0.006996332577733706</v>
       </c>
       <c r="F26">
-        <v>-0.0570206555878924</v>
+        <v>0.004611034730372633</v>
       </c>
       <c r="G26">
-        <v>0.03279143196489623</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.03886266983040013</v>
+      </c>
+      <c r="H26">
+        <v>-0.002215920706214152</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.07339990392968829</v>
+        <v>-0.03086643210086394</v>
       </c>
       <c r="C27">
-        <v>0.05078458574541809</v>
+        <v>-0.01244044406207845</v>
       </c>
       <c r="D27">
-        <v>-0.0004225026490384438</v>
+        <v>-0.01091909914326743</v>
       </c>
       <c r="E27">
-        <v>0.05585275726837997</v>
+        <v>-0.005514780271465664</v>
       </c>
       <c r="F27">
-        <v>-0.05427511686513438</v>
+        <v>0.02597840396636714</v>
       </c>
       <c r="G27">
-        <v>0.05491765501448385</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.02827715963283144</v>
+      </c>
+      <c r="H27">
+        <v>-0.002087943965472218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.07514443733748696</v>
+        <v>-0.1456956558894833</v>
       </c>
       <c r="C28">
-        <v>0.06056109510696742</v>
+        <v>-0.03665220340497288</v>
       </c>
       <c r="D28">
-        <v>-0.04051912078458957</v>
+        <v>0.2195886449893863</v>
       </c>
       <c r="E28">
-        <v>-0.1721704011208235</v>
+        <v>0.02379267047015575</v>
       </c>
       <c r="F28">
-        <v>-0.1027921274715066</v>
+        <v>-0.09381279325898798</v>
       </c>
       <c r="G28">
-        <v>-0.02378700080511684</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.00932458654592142</v>
+      </c>
+      <c r="H28">
+        <v>-0.01249930494389747</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0195726746988028</v>
+        <v>-0.0218186696850851</v>
       </c>
       <c r="C29">
-        <v>0.01980809307989672</v>
+        <v>-0.002448204301080023</v>
       </c>
       <c r="D29">
-        <v>-0.001127986717843946</v>
+        <v>-0.004168466585887876</v>
       </c>
       <c r="E29">
-        <v>0.05836272233553903</v>
+        <v>-0.009893726122148174</v>
       </c>
       <c r="F29">
-        <v>-0.04722562524046277</v>
+        <v>0.02519297357160545</v>
       </c>
       <c r="G29">
-        <v>0.06649219454552931</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03973051981024782</v>
+      </c>
+      <c r="H29">
+        <v>-0.01914865315843339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0875905970769249</v>
+        <v>-0.05588006886000493</v>
       </c>
       <c r="C30">
-        <v>0.05441741164589635</v>
+        <v>0.002307219173739651</v>
       </c>
       <c r="D30">
-        <v>0.03738947495971051</v>
+        <v>-0.05726890797328739</v>
       </c>
       <c r="E30">
-        <v>0.08368610746355845</v>
+        <v>0.03371254520420679</v>
       </c>
       <c r="F30">
-        <v>-0.04787926756552959</v>
+        <v>0.06857286698706251</v>
       </c>
       <c r="G30">
-        <v>0.04927323114582677</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.0675794446620409</v>
+      </c>
+      <c r="H30">
+        <v>0.03415831970638454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06199710217529236</v>
+        <v>-0.05559482900912825</v>
       </c>
       <c r="C31">
-        <v>0.01588351455270578</v>
+        <v>-0.01559766787369665</v>
       </c>
       <c r="D31">
-        <v>0.05063385416323248</v>
+        <v>-0.02608378031976361</v>
       </c>
       <c r="E31">
-        <v>0.03466717956982342</v>
+        <v>0.009048664133039536</v>
       </c>
       <c r="F31">
-        <v>-0.03883895434297887</v>
+        <v>0.01971736404843554</v>
       </c>
       <c r="G31">
-        <v>0.07793483084556506</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.02458065103120893</v>
+      </c>
+      <c r="H31">
+        <v>-0.01577344241384902</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.02045155147502517</v>
+        <v>-0.01586056057863839</v>
       </c>
       <c r="C32">
-        <v>0.02827000224468497</v>
+        <v>-0.01689018090785274</v>
       </c>
       <c r="D32">
-        <v>0.003729951443749728</v>
+        <v>0.00775898726630969</v>
       </c>
       <c r="E32">
-        <v>0.07254931112231738</v>
+        <v>-0.01677241505560181</v>
       </c>
       <c r="F32">
-        <v>-0.06206148565567902</v>
+        <v>0.04670843904122163</v>
       </c>
       <c r="G32">
-        <v>0.04815266141888025</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.05797102880013339</v>
+      </c>
+      <c r="H32">
+        <v>0.04185196863858033</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.05283951166948211</v>
+        <v>-0.040515123488121</v>
       </c>
       <c r="C33">
-        <v>0.001185719462720639</v>
+        <v>-0.001608133120197526</v>
       </c>
       <c r="D33">
-        <v>0.04833697828639934</v>
+        <v>-0.03036263475120154</v>
       </c>
       <c r="E33">
-        <v>0.07497939065919815</v>
+        <v>0.02362279301306111</v>
       </c>
       <c r="F33">
-        <v>-0.09172137967898938</v>
+        <v>0.01204258321563552</v>
       </c>
       <c r="G33">
-        <v>0.0500522070906353</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.06596287819828654</v>
+      </c>
+      <c r="H33">
+        <v>0.01558905150145974</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03209196866025664</v>
+        <v>-0.02723006325717448</v>
       </c>
       <c r="C34">
-        <v>0.01536417712629488</v>
+        <v>-0.01722341758886199</v>
       </c>
       <c r="D34">
-        <v>0.01393532740890496</v>
+        <v>-0.03003647631772277</v>
       </c>
       <c r="E34">
-        <v>0.0447728226904196</v>
+        <v>-0.006477501430361224</v>
       </c>
       <c r="F34">
-        <v>-0.03723437800378456</v>
+        <v>0.02310460367937271</v>
       </c>
       <c r="G34">
-        <v>0.01631539125183741</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.02870917485257292</v>
+      </c>
+      <c r="H34">
+        <v>0.02452165127792142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01286302895958506</v>
+        <v>-0.02146497241111689</v>
       </c>
       <c r="C36">
-        <v>0.009601331492781348</v>
+        <v>0.002986513672378896</v>
       </c>
       <c r="D36">
-        <v>0.003265846294009501</v>
+        <v>0.002462240987066806</v>
       </c>
       <c r="E36">
-        <v>0.02974284815312253</v>
+        <v>-0.001742322221454344</v>
       </c>
       <c r="F36">
-        <v>-0.02416932717810387</v>
+        <v>0.008235777271557557</v>
       </c>
       <c r="G36">
-        <v>0.03589280085741987</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02128313357054449</v>
+      </c>
+      <c r="H36">
+        <v>-0.003823420461118971</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001116320523147587</v>
+        <v>-0.02209137955843149</v>
       </c>
       <c r="C38">
-        <v>-0.00665765929717729</v>
+        <v>-0.01691118193455153</v>
       </c>
       <c r="D38">
-        <v>-0.01323877216719935</v>
+        <v>0.001733510424667355</v>
       </c>
       <c r="E38">
-        <v>-0.003380956304379907</v>
+        <v>-0.003988194359452684</v>
       </c>
       <c r="F38">
-        <v>-0.01904675824013745</v>
+        <v>0.009140993687794047</v>
       </c>
       <c r="G38">
-        <v>-0.01178073820392849</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.03048026291689733</v>
+      </c>
+      <c r="H38">
+        <v>0.02117089911360249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03851542558111568</v>
+        <v>-0.02286941005378012</v>
       </c>
       <c r="C39">
-        <v>0.02016325835650154</v>
+        <v>-0.00133180633257181</v>
       </c>
       <c r="D39">
-        <v>0.03318601195955007</v>
+        <v>-0.06835593884560964</v>
       </c>
       <c r="E39">
-        <v>0.04928377615546269</v>
+        <v>0.001419584107480333</v>
       </c>
       <c r="F39">
-        <v>-0.04597000537409363</v>
+        <v>0.0393842091936959</v>
       </c>
       <c r="G39">
-        <v>0.01952865352885583</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.0572500010193833</v>
+      </c>
+      <c r="H39">
+        <v>0.05053672751712071</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03045166783301756</v>
+        <v>-0.03530821991382228</v>
       </c>
       <c r="C40">
-        <v>0.0441569043006111</v>
+        <v>-0.003037777826646269</v>
       </c>
       <c r="D40">
-        <v>0.05821968409855738</v>
+        <v>-0.01330955708161075</v>
       </c>
       <c r="E40">
-        <v>0.03744104032896593</v>
+        <v>0.02199070750330998</v>
       </c>
       <c r="F40">
-        <v>-0.08751339815868459</v>
+        <v>0.03334245241342575</v>
       </c>
       <c r="G40">
-        <v>0.04543792415432409</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.0529287931822994</v>
+      </c>
+      <c r="H40">
+        <v>0.04602127028143076</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.001650205246185334</v>
+        <v>-0.01071681957352319</v>
       </c>
       <c r="C41">
-        <v>-0.007849098588122593</v>
+        <v>0.0002048978203172595</v>
       </c>
       <c r="D41">
-        <v>0.007589536600180012</v>
+        <v>0.009499290757510281</v>
       </c>
       <c r="E41">
-        <v>0.01591979578152383</v>
+        <v>0.003032398465095183</v>
       </c>
       <c r="F41">
-        <v>-0.0136556708175372</v>
+        <v>-0.003286512922189992</v>
       </c>
       <c r="G41">
-        <v>0.05647695006962988</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.01005115861333119</v>
+      </c>
+      <c r="H41">
+        <v>-0.01645001898200942</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3626993566684055</v>
+        <v>-0.1848356175201973</v>
       </c>
       <c r="C42">
-        <v>-0.88726828809328</v>
+        <v>0.1062118741449311</v>
       </c>
       <c r="D42">
-        <v>0.1832132378339041</v>
+        <v>-0.5275407585705421</v>
       </c>
       <c r="E42">
-        <v>-0.1244867555038039</v>
+        <v>0.1238982560071376</v>
       </c>
       <c r="F42">
-        <v>0.04326282038459487</v>
+        <v>-0.7960714515431933</v>
       </c>
       <c r="G42">
-        <v>0.02014152176322441</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.09333314375059806</v>
+      </c>
+      <c r="H42">
+        <v>0.01967258566515454</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.007495833188083562</v>
+        <v>-0.01022245907091133</v>
       </c>
       <c r="C43">
-        <v>-0.003615433240874111</v>
+        <v>0.001702643520362949</v>
       </c>
       <c r="D43">
-        <v>0.01048654688219826</v>
+        <v>0.01309304847767094</v>
       </c>
       <c r="E43">
-        <v>0.02008529948760349</v>
+        <v>0.008073550355971962</v>
       </c>
       <c r="F43">
-        <v>-0.03409498481459923</v>
+        <v>-0.007863344092040904</v>
       </c>
       <c r="G43">
-        <v>0.04971242410863502</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.01902538799882076</v>
+      </c>
+      <c r="H43">
+        <v>-0.008898299707224621</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01847462346672188</v>
+        <v>-0.01651641932738828</v>
       </c>
       <c r="C44">
-        <v>-0.0008171233027550509</v>
+        <v>-0.001117570341799547</v>
       </c>
       <c r="D44">
-        <v>0.02734241968487911</v>
+        <v>-0.02188737846848758</v>
       </c>
       <c r="E44">
-        <v>0.06899914312446923</v>
+        <v>-0.0002919400742357563</v>
       </c>
       <c r="F44">
-        <v>-0.1714602570813312</v>
+        <v>0.002582289367734988</v>
       </c>
       <c r="G44">
-        <v>0.1556491009348722</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.09107135428012124</v>
+      </c>
+      <c r="H44">
+        <v>0.01418069386838081</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01885330823016236</v>
+        <v>-0.02189395721524223</v>
       </c>
       <c r="C46">
-        <v>0.01858718917697039</v>
+        <v>0.001310224341603758</v>
       </c>
       <c r="D46">
-        <v>0.02224108062857702</v>
+        <v>-0.008655199110033806</v>
       </c>
       <c r="E46">
-        <v>0.06975211783788411</v>
+        <v>0.001840626750721179</v>
       </c>
       <c r="F46">
-        <v>-0.06905544733650977</v>
+        <v>0.03095151679766697</v>
       </c>
       <c r="G46">
-        <v>0.05749962657810668</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.05914657635642865</v>
+      </c>
+      <c r="H46">
+        <v>-0.01383212147830713</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09596455007969472</v>
+        <v>-0.07726870018105135</v>
       </c>
       <c r="C47">
-        <v>0.03418790948120451</v>
+        <v>-0.03191910882481463</v>
       </c>
       <c r="D47">
-        <v>0.02575365510965366</v>
+        <v>-0.03325114891921668</v>
       </c>
       <c r="E47">
-        <v>0.03668130759541031</v>
+        <v>0.004559095233012921</v>
       </c>
       <c r="F47">
-        <v>-0.003204006091897805</v>
+        <v>0.03138823453877712</v>
       </c>
       <c r="G47">
-        <v>0.08865879304761755</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008259084508642569</v>
+      </c>
+      <c r="H47">
+        <v>-0.02996009543241208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01353589505981152</v>
+        <v>-0.02170740981699025</v>
       </c>
       <c r="C48">
-        <v>0.004327616138268405</v>
+        <v>-0.006932353165015404</v>
       </c>
       <c r="D48">
-        <v>0.01803949260344674</v>
+        <v>-0.004117163538864158</v>
       </c>
       <c r="E48">
-        <v>0.04002267419655001</v>
+        <v>0.002736628124383226</v>
       </c>
       <c r="F48">
-        <v>-0.03740897400563176</v>
+        <v>0.01114255541481834</v>
       </c>
       <c r="G48">
-        <v>0.02014574094967208</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02904890651782018</v>
+      </c>
+      <c r="H48">
+        <v>-0.0001310319936672713</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08863773582864702</v>
+        <v>-0.07100029372377874</v>
       </c>
       <c r="C50">
-        <v>0.01683951309403153</v>
+        <v>-0.02678304852708209</v>
       </c>
       <c r="D50">
-        <v>0.0387878461120789</v>
+        <v>-0.04418243535792445</v>
       </c>
       <c r="E50">
-        <v>0.05683589038317159</v>
+        <v>-0.009852893826195575</v>
       </c>
       <c r="F50">
-        <v>-0.02463536212713585</v>
+        <v>0.02796683068861267</v>
       </c>
       <c r="G50">
-        <v>0.03848287000423842</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.02430228891573862</v>
+      </c>
+      <c r="H50">
+        <v>-0.02749834678460737</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02220276992216449</v>
+        <v>-0.02248500973589295</v>
       </c>
       <c r="C51">
-        <v>0.01357736926226755</v>
+        <v>-0.0007739826539960571</v>
       </c>
       <c r="D51">
-        <v>0.02297035978575096</v>
+        <v>0.009730611338556723</v>
       </c>
       <c r="E51">
-        <v>0.02209635828493891</v>
+        <v>0.007899937296356975</v>
       </c>
       <c r="F51">
-        <v>-0.14674954650858</v>
+        <v>-0.003840437958211272</v>
       </c>
       <c r="G51">
-        <v>0.04916732753132616</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.07563495346044194</v>
+      </c>
+      <c r="H51">
+        <v>0.02421999941467248</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1028249085128396</v>
+        <v>-0.09575279885649156</v>
       </c>
       <c r="C53">
-        <v>0.0467580519575517</v>
+        <v>-0.03899564956467696</v>
       </c>
       <c r="D53">
-        <v>0.04100170687151614</v>
+        <v>-0.06341741484909771</v>
       </c>
       <c r="E53">
-        <v>0.04569131878903719</v>
+        <v>0.0007311859742980056</v>
       </c>
       <c r="F53">
-        <v>0.05318307489899543</v>
+        <v>0.06304961097283474</v>
       </c>
       <c r="G53">
-        <v>0.0323476671012488</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.05520905528133778</v>
+      </c>
+      <c r="H53">
+        <v>-0.03454807158395053</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01441606802400589</v>
+        <v>-0.024520558370847</v>
       </c>
       <c r="C54">
-        <v>0.02966397413416024</v>
+        <v>-0.01290562527414734</v>
       </c>
       <c r="D54">
-        <v>0.001350154309711244</v>
+        <v>0.02055202484392683</v>
       </c>
       <c r="E54">
-        <v>0.03570098077380161</v>
+        <v>-0.003554612018303145</v>
       </c>
       <c r="F54">
-        <v>-0.06660800193422597</v>
+        <v>0.01217433521175487</v>
       </c>
       <c r="G54">
-        <v>0.07158910877142638</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03837439966240606</v>
+      </c>
+      <c r="H54">
+        <v>-0.01468806132879682</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09985135208769236</v>
+        <v>-0.08165802570870183</v>
       </c>
       <c r="C55">
-        <v>0.03329215034065875</v>
+        <v>-0.034171128343223</v>
       </c>
       <c r="D55">
-        <v>0.003056815196411642</v>
+        <v>-0.06178370548940158</v>
       </c>
       <c r="E55">
-        <v>0.05240630074057103</v>
+        <v>-0.01034029220769825</v>
       </c>
       <c r="F55">
-        <v>0.04614828675806216</v>
+        <v>0.0525299644709766</v>
       </c>
       <c r="G55">
-        <v>0.06995318309410721</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.0331831554537988</v>
+      </c>
+      <c r="H55">
+        <v>-0.04584988278374064</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.144367822161413</v>
+        <v>-0.1309643012158409</v>
       </c>
       <c r="C56">
-        <v>0.08148517397094984</v>
+        <v>-0.05946203619277369</v>
       </c>
       <c r="D56">
-        <v>0.02450654807862363</v>
+        <v>-0.08257781356091663</v>
       </c>
       <c r="E56">
-        <v>0.05313623627104289</v>
+        <v>-0.004124636782482378</v>
       </c>
       <c r="F56">
-        <v>0.1619051698668881</v>
+        <v>0.09002922346334724</v>
       </c>
       <c r="G56">
-        <v>0.005822382715077623</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.09962936020124273</v>
+      </c>
+      <c r="H56">
+        <v>-0.0286890562436993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04277569852694576</v>
+        <v>-0.04325719957347487</v>
       </c>
       <c r="C57">
-        <v>0.01081157034461101</v>
+        <v>0.008146622663976753</v>
       </c>
       <c r="D57">
-        <v>0.03492495726803778</v>
+        <v>-0.02192208017601878</v>
       </c>
       <c r="E57">
-        <v>0.01428109569225426</v>
+        <v>0.01046203038784676</v>
       </c>
       <c r="F57">
-        <v>-0.07630119491129606</v>
+        <v>0.02354484482102153</v>
       </c>
       <c r="G57">
-        <v>0.03505691167217275</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.06266821804858311</v>
+      </c>
+      <c r="H57">
+        <v>0.009432825988362606</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1933533415551796</v>
+        <v>-0.1478466919584867</v>
       </c>
       <c r="C58">
-        <v>0.02677330309545245</v>
+        <v>-0.04380292397139271</v>
       </c>
       <c r="D58">
-        <v>0.1152217895057524</v>
+        <v>-0.1324873018085646</v>
       </c>
       <c r="E58">
-        <v>0.2521663133866326</v>
+        <v>0.1092224892558177</v>
       </c>
       <c r="F58">
-        <v>-0.2182291093069773</v>
+        <v>0.02819946298646525</v>
       </c>
       <c r="G58">
-        <v>-0.03143192755143909</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.6680571836415292</v>
+      </c>
+      <c r="H58">
+        <v>-0.5569144750881281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.0709108375957556</v>
+        <v>-0.1477851025933163</v>
       </c>
       <c r="C59">
-        <v>0.08154838127536482</v>
+        <v>-0.04346939883601769</v>
       </c>
       <c r="D59">
-        <v>-0.0268612724296588</v>
+        <v>0.2152688857194044</v>
       </c>
       <c r="E59">
-        <v>-0.136216781405574</v>
+        <v>0.0412338541227581</v>
       </c>
       <c r="F59">
-        <v>-0.09944632327329705</v>
+        <v>-0.07365737101441612</v>
       </c>
       <c r="G59">
-        <v>-0.03973731825129781</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.01781389911368693</v>
+      </c>
+      <c r="H59">
+        <v>0.0201407592387926</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1688862298485057</v>
+        <v>-0.1721333608377434</v>
       </c>
       <c r="C60">
-        <v>0.05550961345400988</v>
+        <v>-0.04092777189576056</v>
       </c>
       <c r="D60">
-        <v>0.06843208317284259</v>
+        <v>-0.01501098108737678</v>
       </c>
       <c r="E60">
-        <v>0.05775014406784437</v>
+        <v>0.05406426054799793</v>
       </c>
       <c r="F60">
-        <v>-0.1310190567137467</v>
+        <v>0.05374095964091773</v>
       </c>
       <c r="G60">
-        <v>-0.3356623716288168</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.135587143136648</v>
+      </c>
+      <c r="H60">
+        <v>0.3748350579725681</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01925149448599315</v>
+        <v>-0.02353269678020523</v>
       </c>
       <c r="C61">
-        <v>0.005809574753219833</v>
+        <v>-0.006895224835266603</v>
       </c>
       <c r="D61">
-        <v>0.007967578995864446</v>
+        <v>-0.03645303703010309</v>
       </c>
       <c r="E61">
-        <v>0.02915751873210147</v>
+        <v>-0.003205417338709952</v>
       </c>
       <c r="F61">
-        <v>-0.02262002020747688</v>
+        <v>0.02722946527430308</v>
       </c>
       <c r="G61">
-        <v>0.01884226339359093</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.0331776143181553</v>
+      </c>
+      <c r="H61">
+        <v>0.03777390965754545</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01563301578068441</v>
+        <v>-0.014375160831804</v>
       </c>
       <c r="C63">
-        <v>0.008439439602850768</v>
+        <v>0.001222989327544238</v>
       </c>
       <c r="D63">
-        <v>0.01423024845330797</v>
+        <v>-0.007344976113246225</v>
       </c>
       <c r="E63">
-        <v>0.04092429356581306</v>
+        <v>-0.002354659250227996</v>
       </c>
       <c r="F63">
-        <v>-0.008927387867086488</v>
+        <v>0.01834959330019358</v>
       </c>
       <c r="G63">
-        <v>0.04386094761568357</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01627971737245641</v>
+      </c>
+      <c r="H63">
+        <v>-0.0122266813307876</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03743905559521644</v>
+        <v>-0.04476258205903472</v>
       </c>
       <c r="C64">
-        <v>0.0221223947440133</v>
+        <v>-0.01227319114509657</v>
       </c>
       <c r="D64">
-        <v>-0.01736058045757674</v>
+        <v>-0.03289372673977384</v>
       </c>
       <c r="E64">
-        <v>0.04079970572439525</v>
+        <v>-0.01053244733915843</v>
       </c>
       <c r="F64">
-        <v>-0.02381408309709082</v>
+        <v>0.02326982995287735</v>
       </c>
       <c r="G64">
-        <v>0.0689752525149601</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.02270206073101935</v>
+      </c>
+      <c r="H64">
+        <v>0.02627910163464972</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0130999220143335</v>
+        <v>-0.03621703984335923</v>
       </c>
       <c r="C65">
-        <v>-0.003479343698355863</v>
+        <v>0.002584900662116803</v>
       </c>
       <c r="D65">
-        <v>0.01392828851348302</v>
+        <v>-0.04319759292890855</v>
       </c>
       <c r="E65">
-        <v>0.02073540505805701</v>
+        <v>-0.005973497009222814</v>
       </c>
       <c r="F65">
-        <v>-0.007910050005798794</v>
+        <v>0.03480185586722014</v>
       </c>
       <c r="G65">
-        <v>-0.007703164267397138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.006058372734538808</v>
+      </c>
+      <c r="H65">
+        <v>0.05999666784363572</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03712890984508711</v>
+        <v>-0.02991457826758304</v>
       </c>
       <c r="C66">
-        <v>0.02356035248200155</v>
+        <v>-0.006532243964207632</v>
       </c>
       <c r="D66">
-        <v>0.02595639348034498</v>
+        <v>-0.07724595717712666</v>
       </c>
       <c r="E66">
-        <v>0.05099772742411147</v>
+        <v>0.005691457359048569</v>
       </c>
       <c r="F66">
-        <v>-0.03880442522117334</v>
+        <v>0.05826124818222961</v>
       </c>
       <c r="G66">
-        <v>0.008326431982690036</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.04802777880660156</v>
+      </c>
+      <c r="H66">
+        <v>0.05983118413117642</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.02116479194701869</v>
+        <v>-0.04355526882409601</v>
       </c>
       <c r="C67">
-        <v>-0.0001218151434796984</v>
+        <v>-0.02101004004182112</v>
       </c>
       <c r="D67">
-        <v>-0.01557932640626318</v>
+        <v>0.0067961339401646</v>
       </c>
       <c r="E67">
-        <v>-0.02205552998764851</v>
+        <v>-0.0007703625351513318</v>
       </c>
       <c r="F67">
-        <v>-0.02522863126161088</v>
+        <v>0.0115257504889019</v>
       </c>
       <c r="G67">
-        <v>-0.01414560194659038</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01892064080637185</v>
+      </c>
+      <c r="H67">
+        <v>0.03248822263341992</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08328560549926679</v>
+        <v>-0.1480807607681569</v>
       </c>
       <c r="C68">
-        <v>0.05922390686662662</v>
+        <v>-0.0215763193419296</v>
       </c>
       <c r="D68">
-        <v>-0.0434748000964265</v>
+        <v>0.2006096889363521</v>
       </c>
       <c r="E68">
-        <v>-0.1682417320275434</v>
+        <v>0.03575244920052568</v>
       </c>
       <c r="F68">
-        <v>-0.07305755321572215</v>
+        <v>-0.09722248374657823</v>
       </c>
       <c r="G68">
-        <v>-0.07694275162290262</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.0129782601598459</v>
+      </c>
+      <c r="H68">
+        <v>-0.04262823873399389</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.07143157754392065</v>
+        <v>-0.06246486925523968</v>
       </c>
       <c r="C69">
-        <v>0.02877591902328762</v>
+        <v>-0.03002373112688606</v>
       </c>
       <c r="D69">
-        <v>0.02579107479139096</v>
+        <v>-0.03141879167195809</v>
       </c>
       <c r="E69">
-        <v>0.01178803514162011</v>
+        <v>0.004955482175846968</v>
       </c>
       <c r="F69">
-        <v>-0.01340601702489528</v>
+        <v>0.02870070278272496</v>
       </c>
       <c r="G69">
-        <v>0.07570260095035017</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.0002403472709565106</v>
+      </c>
+      <c r="H69">
+        <v>-0.009394406833091871</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1015649476885476</v>
+        <v>-0.1421729255683807</v>
       </c>
       <c r="C71">
-        <v>0.06344106968686251</v>
+        <v>-0.0298034882939008</v>
       </c>
       <c r="D71">
-        <v>-0.02378512600635096</v>
+        <v>0.18693707116709</v>
       </c>
       <c r="E71">
-        <v>-0.2111433936751411</v>
+        <v>0.03575577723817791</v>
       </c>
       <c r="F71">
-        <v>-0.09379245147186853</v>
+        <v>-0.1025121325010745</v>
       </c>
       <c r="G71">
-        <v>-0.04788584097921809</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01145879649704192</v>
+      </c>
+      <c r="H71">
+        <v>-0.02527704614464807</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1082572438526161</v>
+        <v>-0.09025341784054945</v>
       </c>
       <c r="C72">
-        <v>0.0933275847310636</v>
+        <v>-0.04442187348665245</v>
       </c>
       <c r="D72">
-        <v>0.01990139995004346</v>
+        <v>-0.065660719701093</v>
       </c>
       <c r="E72">
-        <v>0.08491678664586882</v>
+        <v>0.006696198069082525</v>
       </c>
       <c r="F72">
-        <v>-0.08763461122423812</v>
+        <v>0.1043039516590884</v>
       </c>
       <c r="G72">
-        <v>-0.1096645683559143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.1026106098965397</v>
+      </c>
+      <c r="H72">
+        <v>0.1485846061845298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2479605717462096</v>
+        <v>-0.2411338004657816</v>
       </c>
       <c r="C73">
-        <v>0.06993676910879616</v>
+        <v>-0.05279794331113542</v>
       </c>
       <c r="D73">
-        <v>0.06078872389195644</v>
+        <v>-0.0607183688518069</v>
       </c>
       <c r="E73">
-        <v>0.02328076987765558</v>
+        <v>0.07744649829676167</v>
       </c>
       <c r="F73">
-        <v>-0.2050643485450434</v>
+        <v>0.06483469944916162</v>
       </c>
       <c r="G73">
-        <v>-0.4786359655792491</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1831444704148937</v>
+      </c>
+      <c r="H73">
+        <v>0.5049856831175573</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.126786745995704</v>
+        <v>-0.1191922701106904</v>
       </c>
       <c r="C74">
-        <v>0.04628995527197145</v>
+        <v>-0.05371140832785633</v>
       </c>
       <c r="D74">
-        <v>0.0344422224440424</v>
+        <v>-0.08274607597423056</v>
       </c>
       <c r="E74">
-        <v>0.02345935455892935</v>
+        <v>0.005017374212429569</v>
       </c>
       <c r="F74">
-        <v>0.09460272278474073</v>
+        <v>0.07526661042687451</v>
       </c>
       <c r="G74">
-        <v>-0.02175852429954481</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.07438661104157689</v>
+      </c>
+      <c r="H74">
+        <v>-0.008137567566299339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2176904791358408</v>
+        <v>-0.2307380125017333</v>
       </c>
       <c r="C75">
-        <v>0.1250211643985319</v>
+        <v>-0.1061283977388391</v>
       </c>
       <c r="D75">
-        <v>0.06719331344019681</v>
+        <v>-0.1309814802825356</v>
       </c>
       <c r="E75">
-        <v>0.06846612005094468</v>
+        <v>0.01902620337355014</v>
       </c>
       <c r="F75">
-        <v>0.1685876560143735</v>
+        <v>0.1519674092766529</v>
       </c>
       <c r="G75">
-        <v>0.05477456044812572</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1588369919754475</v>
+      </c>
+      <c r="H75">
+        <v>-0.09033055287278209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2717409149134562</v>
+        <v>-0.2101937859675202</v>
       </c>
       <c r="C76">
-        <v>0.1300633841849397</v>
+        <v>-0.1007240503351147</v>
       </c>
       <c r="D76">
-        <v>0.008000928537395475</v>
+        <v>-0.1199098424910967</v>
       </c>
       <c r="E76">
-        <v>0.03571605061958901</v>
+        <v>-0.02211299219613212</v>
       </c>
       <c r="F76">
-        <v>0.2029242942161225</v>
+        <v>0.145480192047709</v>
       </c>
       <c r="G76">
-        <v>0.06331646585282852</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1746520690169975</v>
+      </c>
+      <c r="H76">
+        <v>-0.09303423484808776</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.141710047664253</v>
+        <v>-0.07516085031489723</v>
       </c>
       <c r="C77">
-        <v>-0.0229669740978393</v>
+        <v>-0.01031314148419131</v>
       </c>
       <c r="D77">
-        <v>0.06682361669377303</v>
+        <v>-0.07263788116328018</v>
       </c>
       <c r="E77">
-        <v>0.1090724088892875</v>
+        <v>0.01130701864649889</v>
       </c>
       <c r="F77">
-        <v>-0.2247958258970315</v>
+        <v>-0.003424419333283659</v>
       </c>
       <c r="G77">
-        <v>0.1333534175492074</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.1316569276655253</v>
+      </c>
+      <c r="H77">
+        <v>-0.0662541086617995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.05370064415347167</v>
+        <v>-0.03816811223995778</v>
       </c>
       <c r="C78">
-        <v>0.01575646418984504</v>
+        <v>-0.0110632040579088</v>
       </c>
       <c r="D78">
-        <v>0.03688918660989541</v>
+        <v>-0.05655624681280413</v>
       </c>
       <c r="E78">
-        <v>0.1072531123556335</v>
+        <v>-0.003914143988100692</v>
       </c>
       <c r="F78">
-        <v>-0.03519760944765719</v>
+        <v>0.0471709496633371</v>
       </c>
       <c r="G78">
-        <v>0.06202020875088592</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.0596322219722105</v>
+      </c>
+      <c r="H78">
+        <v>0.02644576835329255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2070400374765838</v>
+        <v>-0.1656764512496418</v>
       </c>
       <c r="C80">
-        <v>-0.1494273065625373</v>
+        <v>-0.05129390866975921</v>
       </c>
       <c r="D80">
-        <v>-0.9233018843024889</v>
+        <v>-0.001783535845570466</v>
       </c>
       <c r="E80">
-        <v>0.2508888412187107</v>
+        <v>-0.9624183151564877</v>
       </c>
       <c r="F80">
-        <v>-0.03049513672261516</v>
+        <v>-0.1354021065368783</v>
       </c>
       <c r="G80">
-        <v>-0.02289589819740222</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.09362305905256849</v>
+      </c>
+      <c r="H80">
+        <v>0.008213546857658665</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1581464604995224</v>
+        <v>-0.1524943301685324</v>
       </c>
       <c r="C81">
-        <v>0.09207493766760133</v>
+        <v>-0.06922932847202473</v>
       </c>
       <c r="D81">
-        <v>0.01960858751306066</v>
+        <v>-0.08100674426580537</v>
       </c>
       <c r="E81">
-        <v>0.04777981290026219</v>
+        <v>-0.003411701439340164</v>
       </c>
       <c r="F81">
-        <v>0.1760130753855835</v>
+        <v>0.0973643560703486</v>
       </c>
       <c r="G81">
-        <v>0.02665361372040175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.1060705178360195</v>
+      </c>
+      <c r="H81">
+        <v>-0.06691269702412501</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.05484195392887083</v>
+        <v>-0.03832609935984994</v>
       </c>
       <c r="C83">
-        <v>-0.01198683738105291</v>
+        <v>-0.007639386012083255</v>
       </c>
       <c r="D83">
-        <v>0.03775632481467652</v>
+        <v>-0.02251585009243584</v>
       </c>
       <c r="E83">
-        <v>0.0309811362984745</v>
+        <v>0.01164774441964747</v>
       </c>
       <c r="F83">
-        <v>-0.05936678529203566</v>
+        <v>0.009109531810824632</v>
       </c>
       <c r="G83">
-        <v>0.04990108908397936</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05689365856491183</v>
+      </c>
+      <c r="H83">
+        <v>0.01400278109940471</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2364777768129991</v>
+        <v>-0.2158323596158062</v>
       </c>
       <c r="C85">
-        <v>0.1149620140445964</v>
+        <v>-0.08734046852627858</v>
       </c>
       <c r="D85">
-        <v>0.04242759832403271</v>
+        <v>-0.1369252477270776</v>
       </c>
       <c r="E85">
-        <v>0.04236615377418401</v>
+        <v>0.01064088473525548</v>
       </c>
       <c r="F85">
-        <v>0.1896268304319026</v>
+        <v>0.1349531640303724</v>
       </c>
       <c r="G85">
-        <v>0.0770024901452868</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1689045699624422</v>
+      </c>
+      <c r="H85">
+        <v>-0.06030002811040878</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.001406938263965254</v>
+        <v>-0.01659928303218323</v>
       </c>
       <c r="C86">
-        <v>-0.009110114711477775</v>
+        <v>0.0009147788938153187</v>
       </c>
       <c r="D86">
-        <v>0.001605823575362374</v>
+        <v>-0.004329810704502459</v>
       </c>
       <c r="E86">
-        <v>0.04616931578239436</v>
+        <v>0.01058934853695029</v>
       </c>
       <c r="F86">
-        <v>-0.06824599073370635</v>
+        <v>-0.002958799876704165</v>
       </c>
       <c r="G86">
-        <v>0.01662189374759423</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.08933785265798259</v>
+      </c>
+      <c r="H86">
+        <v>0.03904017310409261</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03136800297419412</v>
+        <v>-0.02905171326749343</v>
       </c>
       <c r="C87">
-        <v>0.007797829681929631</v>
+        <v>-0.003585302832759637</v>
       </c>
       <c r="D87">
-        <v>0.012505571224891</v>
+        <v>-0.02714790037011447</v>
       </c>
       <c r="E87">
-        <v>0.03730050921090643</v>
+        <v>0.0008302159794152079</v>
       </c>
       <c r="F87">
-        <v>-0.08236173706549701</v>
+        <v>0.02316888749862957</v>
       </c>
       <c r="G87">
-        <v>-0.001210413627450184</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.09612668808839261</v>
+      </c>
+      <c r="H87">
+        <v>0.02630720284081029</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.009286788735899719</v>
+        <v>-0.0359145276170002</v>
       </c>
       <c r="C88">
-        <v>0.01422508746109487</v>
+        <v>0.0105200653850834</v>
       </c>
       <c r="D88">
-        <v>-0.02416258559406465</v>
+        <v>0.0001720782937417847</v>
       </c>
       <c r="E88">
-        <v>-0.006260000684153697</v>
+        <v>-0.00900453010300069</v>
       </c>
       <c r="F88">
-        <v>-0.03594395758010042</v>
+        <v>0.0130479207330873</v>
       </c>
       <c r="G88">
-        <v>0.06418150015595485</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.003762197113592236</v>
+      </c>
+      <c r="H88">
+        <v>0.009525107440970093</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1224383750907056</v>
+        <v>-0.2326525812547255</v>
       </c>
       <c r="C89">
-        <v>0.09221192705504574</v>
+        <v>-0.04566679502817717</v>
       </c>
       <c r="D89">
-        <v>-0.03306322175025449</v>
+        <v>0.3305840773368091</v>
       </c>
       <c r="E89">
-        <v>-0.289689097399392</v>
+        <v>0.08011904552341637</v>
       </c>
       <c r="F89">
-        <v>-0.1552230414634133</v>
+        <v>-0.1401049635293133</v>
       </c>
       <c r="G89">
-        <v>-0.02023105073017373</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.001105145907334361</v>
+      </c>
+      <c r="H89">
+        <v>-0.0302178232233061</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1112486076805838</v>
+        <v>-0.1837496406234983</v>
       </c>
       <c r="C90">
-        <v>0.08872082692298938</v>
+        <v>-0.03658907576740138</v>
       </c>
       <c r="D90">
-        <v>-0.07826427394755349</v>
+        <v>0.2843673081636358</v>
       </c>
       <c r="E90">
-        <v>-0.2885312561297498</v>
+        <v>0.05237549803199877</v>
       </c>
       <c r="F90">
-        <v>-0.1136885104275936</v>
+        <v>-0.1366549279175655</v>
       </c>
       <c r="G90">
-        <v>-0.0338113886725381</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.04002965011555103</v>
+      </c>
+      <c r="H90">
+        <v>-0.0460617163925461</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.290657031446233</v>
+        <v>-0.2384330676325436</v>
       </c>
       <c r="C91">
-        <v>0.1024328036077782</v>
+        <v>-0.1071868457668581</v>
       </c>
       <c r="D91">
-        <v>0.05679816491228536</v>
+        <v>-0.1300733146732144</v>
       </c>
       <c r="E91">
-        <v>0.02472336930322364</v>
+        <v>0.01138677496164921</v>
       </c>
       <c r="F91">
-        <v>0.2604896472556549</v>
+        <v>0.137409976740676</v>
       </c>
       <c r="G91">
-        <v>0.03898773620274078</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.2044741272711554</v>
+      </c>
+      <c r="H91">
+        <v>-0.1221010471105089</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1896904764766895</v>
+        <v>-0.238341391695363</v>
       </c>
       <c r="C92">
-        <v>0.08960551810832534</v>
+        <v>-0.09949791409981547</v>
       </c>
       <c r="D92">
-        <v>-0.1123146096943964</v>
+        <v>0.2313107911383961</v>
       </c>
       <c r="E92">
-        <v>-0.4566852690280166</v>
+        <v>0.03358328826840514</v>
       </c>
       <c r="F92">
-        <v>-0.07282108217476289</v>
+        <v>-0.116577744682288</v>
       </c>
       <c r="G92">
-        <v>0.4898354673432777</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.04935067422309407</v>
+      </c>
+      <c r="H92">
+        <v>-0.1367070389424768</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1213866839830998</v>
+        <v>-0.2065554082124145</v>
       </c>
       <c r="C93">
-        <v>0.06963496468862998</v>
+        <v>-0.04703817341525798</v>
       </c>
       <c r="D93">
-        <v>-0.09452721625599532</v>
+        <v>0.3028007557437313</v>
       </c>
       <c r="E93">
-        <v>-0.4013354915417618</v>
+        <v>0.06611396264215338</v>
       </c>
       <c r="F93">
-        <v>-0.08229128785738829</v>
+        <v>-0.1746278545414345</v>
       </c>
       <c r="G93">
-        <v>-0.1017435708473367</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.05217133103985458</v>
+      </c>
+      <c r="H93">
+        <v>0.01318383507745447</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2687220954044103</v>
+        <v>-0.2554991845236308</v>
       </c>
       <c r="C94">
-        <v>0.1441409727210798</v>
+        <v>-0.09541599339915395</v>
       </c>
       <c r="D94">
-        <v>0.02952308361330163</v>
+        <v>-0.1151198324901618</v>
       </c>
       <c r="E94">
-        <v>0.0290807984868053</v>
+        <v>0.02963410901497918</v>
       </c>
       <c r="F94">
-        <v>0.3036673150873324</v>
+        <v>0.1626295378596688</v>
       </c>
       <c r="G94">
-        <v>-0.02695458878358411</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2148766487925922</v>
+      </c>
+      <c r="H94">
+        <v>-0.134565496105934</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07940615546821791</v>
+        <v>-0.06743201554124173</v>
       </c>
       <c r="C95">
-        <v>0.008792840947822069</v>
+        <v>-0.03362437506778244</v>
       </c>
       <c r="D95">
-        <v>0.07367003290170157</v>
+        <v>-0.08385174658717501</v>
       </c>
       <c r="E95">
-        <v>0.08116287820847595</v>
+        <v>0.07104697455739441</v>
       </c>
       <c r="F95">
-        <v>-0.03446327764179549</v>
+        <v>0.0252614765811986</v>
       </c>
       <c r="G95">
-        <v>0.2271987781169866</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.06139626129390172</v>
+      </c>
+      <c r="H95">
+        <v>0.005392133736373529</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1870993010654876</v>
+        <v>-0.1805688814908966</v>
       </c>
       <c r="C98">
-        <v>0.03825145893991047</v>
+        <v>-0.07212107179207641</v>
       </c>
       <c r="D98">
-        <v>0.04521542390292076</v>
+        <v>-0.03823447793551418</v>
       </c>
       <c r="E98">
-        <v>-0.01572871745003977</v>
+        <v>0.05229498863134932</v>
       </c>
       <c r="F98">
-        <v>-0.080315928844391</v>
+        <v>0.02661466727107666</v>
       </c>
       <c r="G98">
-        <v>-0.3374434946331796</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.1555535709492154</v>
+      </c>
+      <c r="H98">
+        <v>0.3642490794582919</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00300246177207938</v>
+        <v>-0.01486747238306383</v>
       </c>
       <c r="C101">
-        <v>0.02269041704576179</v>
+        <v>-0.0002792588098625035</v>
       </c>
       <c r="D101">
-        <v>0.01483307189222016</v>
+        <v>-0.004665345207508633</v>
       </c>
       <c r="E101">
-        <v>0.1260068923394775</v>
+        <v>-0.005296661709660452</v>
       </c>
       <c r="F101">
-        <v>-0.1371188207193698</v>
+        <v>0.03107083479407877</v>
       </c>
       <c r="G101">
-        <v>0.1334024626329904</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1023029691965874</v>
+      </c>
+      <c r="H101">
+        <v>-0.07280650548067907</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.09723995460100864</v>
+        <v>-0.1041973185811917</v>
       </c>
       <c r="C102">
-        <v>0.03208613826592888</v>
+        <v>-0.03445876392331251</v>
       </c>
       <c r="D102">
-        <v>0.01372436348431316</v>
+        <v>-0.06999127733379683</v>
       </c>
       <c r="E102">
-        <v>0.05309328041185586</v>
+        <v>-0.002836518796895829</v>
       </c>
       <c r="F102">
-        <v>0.1361415838476965</v>
+        <v>0.06764059387518499</v>
       </c>
       <c r="G102">
-        <v>0.07293463379901208</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.095318466338292</v>
+      </c>
+      <c r="H102">
+        <v>-0.05395932619180486</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.02526967496664643</v>
+        <v>-0.02080236842492902</v>
       </c>
       <c r="C103">
-        <v>0.01286661776823898</v>
+        <v>-0.00812204049639189</v>
       </c>
       <c r="D103">
-        <v>0.01121584197895861</v>
+        <v>-0.01396673896133688</v>
       </c>
       <c r="E103">
-        <v>0.005044008133255931</v>
+        <v>-0.006420185175870993</v>
       </c>
       <c r="F103">
-        <v>0.01032001208596956</v>
+        <v>0.01777935085004249</v>
       </c>
       <c r="G103">
-        <v>0.02285923339563423</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.006183867459418116</v>
+      </c>
+      <c r="H103">
+        <v>-0.01054295539809485</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.287411588829408</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9374792846211923</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.04337118404757447</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02601115832322713</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1579129832105018</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.03771027261813685</v>
+      </c>
+      <c r="H104">
+        <v>-0.03089916822390801</v>
       </c>
     </row>
   </sheetData>
